--- a/artfynd/A 61173-2025 artfynd.xlsx
+++ b/artfynd/A 61173-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130736086</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>130746925</v>
       </c>
       <c r="B3" t="n">
-        <v>92531</v>
+        <v>92535</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>130733307</v>
       </c>
       <c r="B4" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>130733209</v>
       </c>
       <c r="B5" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>130732952</v>
       </c>
       <c r="B6" t="n">
-        <v>79829</v>
+        <v>79833</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>130735830</v>
       </c>
       <c r="B7" t="n">
-        <v>92403</v>
+        <v>92407</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>130732414</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>130735839</v>
       </c>
       <c r="B9" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>130733442</v>
       </c>
       <c r="B10" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>130733969</v>
       </c>
       <c r="B11" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>130732790</v>
       </c>
       <c r="B12" t="n">
-        <v>78996</v>
+        <v>79000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>130736016</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>130735568</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>130734065</v>
       </c>
       <c r="B15" t="n">
-        <v>92531</v>
+        <v>92535</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>130735950</v>
       </c>
       <c r="B16" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>130732978</v>
       </c>
       <c r="B17" t="n">
-        <v>78246</v>
+        <v>78250</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
